--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2077,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.3127939318719</v>
+        <v>414.7290035723143</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.6242546401365</v>
+        <v>567.450519239973</v>
       </c>
       <c r="AC2" t="n">
-        <v>468.2229222674854</v>
+        <v>513.2938381055151</v>
       </c>
       <c r="AD2" t="n">
-        <v>378312.7939318719</v>
+        <v>414729.0035723143</v>
       </c>
       <c r="AE2" t="n">
-        <v>517624.2546401366</v>
+        <v>567450.519239973</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.774284157870073e-06</v>
+        <v>5.133152039683118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.478125000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>468222.9222674854</v>
+        <v>513293.8381055151</v>
       </c>
     </row>
     <row r="3">
@@ -2183,28 +2183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.1200333204962</v>
+        <v>158.4258936932806</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.5089465472942</v>
+        <v>216.7652970082017</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.995110245296</v>
+        <v>196.0775212938061</v>
       </c>
       <c r="AD3" t="n">
-        <v>134120.0333204961</v>
+        <v>158425.8936932806</v>
       </c>
       <c r="AE3" t="n">
-        <v>183508.9465472942</v>
+        <v>216765.2970082017</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.095159515053381e-06</v>
+        <v>9.427379089129336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.982291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>165995.110245296</v>
+        <v>196077.5212938061</v>
       </c>
     </row>
     <row r="4">
@@ -2289,28 +2289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.5236555442515</v>
+        <v>118.8045970125011</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.7503650075921</v>
+        <v>162.5536909213423</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.840154733229</v>
+        <v>147.0397948053923</v>
       </c>
       <c r="AD4" t="n">
-        <v>106523.6555442515</v>
+        <v>118804.5970125011</v>
       </c>
       <c r="AE4" t="n">
-        <v>145750.365007592</v>
+        <v>162553.6909213423</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.94683280282987e-06</v>
+        <v>1.100319765187162e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.555208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>131840.1547332291</v>
+        <v>147039.7948053923</v>
       </c>
     </row>
     <row r="5">
@@ -2395,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.1271095071977</v>
+        <v>112.2374587748551</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.9983285240047</v>
+        <v>153.568242662908</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.9234003280721</v>
+        <v>138.9119051175843</v>
       </c>
       <c r="AD5" t="n">
-        <v>100127.1095071977</v>
+        <v>112237.4587748551</v>
       </c>
       <c r="AE5" t="n">
-        <v>136998.3285240047</v>
+        <v>153568.242662908</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.15369692103252e-06</v>
+        <v>1.138595043055757e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.469791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>123923.4003280721</v>
+        <v>138911.9051175843</v>
       </c>
     </row>
   </sheetData>
@@ -2692,28 +2692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.3417919497893</v>
+        <v>260.7839648692062</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.7415105264202</v>
+        <v>356.8161257105984</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.7486365394477</v>
+        <v>322.7620954673558</v>
       </c>
       <c r="AD2" t="n">
-        <v>237341.7919497893</v>
+        <v>260783.9648692061</v>
       </c>
       <c r="AE2" t="n">
-        <v>324741.5105264202</v>
+        <v>356816.1257105984</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.653359984094732e-06</v>
+        <v>6.96386796149395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.303125000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>293748.6365394477</v>
+        <v>322762.0954673559</v>
       </c>
     </row>
     <row r="3">
@@ -2798,28 +2798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.3600308786448</v>
+        <v>129.8021142895074</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.5264865214984</v>
+        <v>177.6009792359549</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.6376428956326</v>
+        <v>160.6509910422649</v>
       </c>
       <c r="AD3" t="n">
-        <v>106360.0308786448</v>
+        <v>129802.1142895074</v>
       </c>
       <c r="AE3" t="n">
-        <v>145526.4865214984</v>
+        <v>177600.9792359549</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.829107294516649e-06</v>
+        <v>1.111117812345935e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.696875</v>
       </c>
       <c r="AH3" t="n">
-        <v>131637.6428956326</v>
+        <v>160650.9910422649</v>
       </c>
     </row>
     <row r="4">
@@ -2904,28 +2904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.28546924380963</v>
+        <v>105.9639300305061</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.0055386006614</v>
+        <v>144.9845238663392</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.693431057059</v>
+        <v>131.1474043956323</v>
       </c>
       <c r="AD4" t="n">
-        <v>94285.46924380962</v>
+        <v>105963.9300305061</v>
       </c>
       <c r="AE4" t="n">
-        <v>129005.5386006614</v>
+        <v>144984.5238663392</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.293172147089819e-06</v>
+        <v>1.199575735270562e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.497916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>116693.431057059</v>
+        <v>131147.4043956323</v>
       </c>
     </row>
   </sheetData>
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.99893598205009</v>
+        <v>105.8404801098599</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.2992940989955</v>
+        <v>144.815614238685</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.1998526973019</v>
+        <v>130.9946152657753</v>
       </c>
       <c r="AD2" t="n">
-        <v>84998.93598205008</v>
+        <v>105840.4801098599</v>
       </c>
       <c r="AE2" t="n">
-        <v>116299.2940989955</v>
+        <v>144815.614238685</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.180433738607856e-06</v>
+        <v>1.316270642559028e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.838541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>105199.8526973019</v>
+        <v>130994.6152657753</v>
       </c>
     </row>
     <row r="3">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.34291010082211</v>
+        <v>106.184454228632</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.7699346633662</v>
+        <v>145.2862548030558</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.6255759867575</v>
+        <v>131.4203385552308</v>
       </c>
       <c r="AD3" t="n">
-        <v>85342.9101008221</v>
+        <v>106184.454228632</v>
       </c>
       <c r="AE3" t="n">
-        <v>116769.9346633662</v>
+        <v>145286.2548030558</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.185148927422357e-06</v>
+        <v>1.317274854378642e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.836458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>105625.5759867575</v>
+        <v>131420.3385552308</v>
       </c>
     </row>
   </sheetData>
@@ -3604,28 +3604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.6178901707794</v>
+        <v>132.5897757255307</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.4029627342314</v>
+        <v>181.415180595663</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.5216975189474</v>
+        <v>164.1011703774689</v>
       </c>
       <c r="AD2" t="n">
-        <v>121617.8901707794</v>
+        <v>132589.7757255307</v>
       </c>
       <c r="AE2" t="n">
-        <v>166402.9627342314</v>
+        <v>181415.180595663</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.394357921328716e-06</v>
+        <v>1.095241158062823e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.111458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>150521.6975189474</v>
+        <v>164101.1703774689</v>
       </c>
     </row>
     <row r="3">
@@ -3710,28 +3710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.39684799275108</v>
+        <v>109.2550992305799</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.5802231004467</v>
+        <v>149.4876467620154</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.1676544396684</v>
+        <v>135.2207555623194</v>
       </c>
       <c r="AD3" t="n">
-        <v>87396.84799275108</v>
+        <v>109255.0992305799</v>
       </c>
       <c r="AE3" t="n">
-        <v>119580.2231004467</v>
+        <v>149487.6467620154</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.331008170839085e-06</v>
+        <v>1.285413541678199e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.651041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>108167.6544396684</v>
+        <v>135220.7555623194</v>
       </c>
     </row>
   </sheetData>
@@ -4007,28 +4007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.9572341883581</v>
+        <v>105.0038119939025</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.9246770339698</v>
+        <v>143.6708480112404</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.5248482083117</v>
+        <v>129.9591039203881</v>
       </c>
       <c r="AD2" t="n">
-        <v>94957.2341883581</v>
+        <v>105003.8119939025</v>
       </c>
       <c r="AE2" t="n">
-        <v>129924.6770339698</v>
+        <v>143670.8480112404</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.89543329053446e-06</v>
+        <v>1.312797841816589e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.090625000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>117524.8482083117</v>
+        <v>129959.1039203881</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.8375034751438</v>
+        <v>286.6773049848991</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.6258678269717</v>
+        <v>392.2445359904336</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.3036797396403</v>
+        <v>354.8092679941697</v>
       </c>
       <c r="AD2" t="n">
-        <v>262837.5034751438</v>
+        <v>286677.3049848991</v>
       </c>
       <c r="AE2" t="n">
-        <v>359625.8678269717</v>
+        <v>392244.5359904336</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.419234707472164e-06</v>
+        <v>6.464964759382571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.55625</v>
       </c>
       <c r="AH2" t="n">
-        <v>325303.6797396403</v>
+        <v>354809.2679941697</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.784166220087</v>
+        <v>137.4532860206987</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.6845160253898</v>
+        <v>188.0696499444397</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.8262043205599</v>
+        <v>170.1205465112068</v>
       </c>
       <c r="AD3" t="n">
-        <v>113784.166220087</v>
+        <v>137453.2860206987</v>
       </c>
       <c r="AE3" t="n">
-        <v>155684.5160253898</v>
+        <v>188069.6499444397</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.604900704104051e-06</v>
+        <v>1.059754261755845e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.779166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>140826.2043205599</v>
+        <v>170120.5465112068</v>
       </c>
     </row>
     <row r="4">
@@ -4516,28 +4516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.59769389462778</v>
+        <v>107.3896728761989</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.8009822591757</v>
+        <v>146.9352881271502</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.3175200927263</v>
+        <v>132.911990453307</v>
       </c>
       <c r="AD4" t="n">
-        <v>95597.69389462778</v>
+        <v>107389.6728761989</v>
       </c>
       <c r="AE4" t="n">
-        <v>130800.9822591757</v>
+        <v>146935.2881271502</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.266253861152512e-06</v>
+        <v>1.184800513903468e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.486458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>118317.5200927263</v>
+        <v>132911.990453307</v>
       </c>
     </row>
     <row r="5">
@@ -4622,28 +4622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.91913061342683</v>
+        <v>107.7111095949979</v>
       </c>
       <c r="AB5" t="n">
-        <v>131.2407861586235</v>
+        <v>147.375092026598</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.7153497252796</v>
+        <v>133.3098200858603</v>
       </c>
       <c r="AD5" t="n">
-        <v>95919.13061342682</v>
+        <v>107711.1095949979</v>
       </c>
       <c r="AE5" t="n">
-        <v>131240.7861586235</v>
+        <v>147375.092026598</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.266104301415504e-06</v>
+        <v>1.184772235691766e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.486458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>118715.3497252796</v>
+        <v>133309.8200858603</v>
       </c>
     </row>
   </sheetData>
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.97161385126269</v>
+        <v>115.4001996202678</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.3125960400276</v>
+        <v>157.895644217878</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.7803061723883</v>
+        <v>142.8263055416956</v>
       </c>
       <c r="AD2" t="n">
-        <v>95971.61385126269</v>
+        <v>115400.1996202678</v>
       </c>
       <c r="AE2" t="n">
-        <v>131312.5960400276</v>
+        <v>157895.644217878</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.615524530359628e-06</v>
+        <v>1.287396481191589e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.319791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>118780.3061723883</v>
+        <v>142826.3055416956</v>
       </c>
     </row>
   </sheetData>
@@ -5216,28 +5216,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.6522189721025</v>
+        <v>188.4428003054162</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.6526740576522</v>
+        <v>257.8357528873637</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.0212609546811</v>
+        <v>233.2282705066208</v>
       </c>
       <c r="AD2" t="n">
-        <v>165652.2189721025</v>
+        <v>188442.8003054162</v>
       </c>
       <c r="AE2" t="n">
-        <v>226652.6740576522</v>
+        <v>257835.7528873637</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.436119020720344e-06</v>
+        <v>8.694731973738986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.651041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>205021.2609546811</v>
+        <v>233228.2705066208</v>
       </c>
     </row>
     <row r="3">
@@ -5322,28 +5322,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.10356246287034</v>
+        <v>102.5841939840988</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.6519133671625</v>
+        <v>140.3602199042158</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.7553097054925</v>
+        <v>126.9644375134012</v>
       </c>
       <c r="AD3" t="n">
-        <v>91103.56246287034</v>
+        <v>102584.1939840988</v>
       </c>
       <c r="AE3" t="n">
-        <v>124651.9133671625</v>
+        <v>140360.2199042158</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.316144084846865e-06</v>
+        <v>1.237955511760432e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.564583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>112755.3097054925</v>
+        <v>126964.4375134011</v>
       </c>
     </row>
     <row r="4">
@@ -5428,28 +5428,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.74112606086081</v>
+        <v>102.2217575820893</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.1560118923677</v>
+        <v>139.8643184294211</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.3067363714499</v>
+        <v>126.5158641793586</v>
       </c>
       <c r="AD4" t="n">
-        <v>90741.12606086081</v>
+        <v>102221.7575820893</v>
       </c>
       <c r="AE4" t="n">
-        <v>124156.0118923677</v>
+        <v>139864.3184294211</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.346309072229261e-06</v>
+        <v>1.243867807599568e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.552083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>112306.7363714499</v>
+        <v>126515.8641793586</v>
       </c>
     </row>
   </sheetData>
@@ -5725,28 +5725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.7150806315197</v>
+        <v>238.9215838175079</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.1508899976124</v>
+        <v>326.9030514553301</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.9821033032031</v>
+        <v>295.7038830358449</v>
       </c>
       <c r="AD2" t="n">
-        <v>215715.0806315197</v>
+        <v>238921.5838175079</v>
       </c>
       <c r="AE2" t="n">
-        <v>295150.8899976123</v>
+        <v>326903.0514553301</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.889313921417078e-06</v>
+        <v>7.477995860609898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.080208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>266982.1033032031</v>
+        <v>295703.8830358449</v>
       </c>
     </row>
     <row r="3">
@@ -5831,28 +5831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.2781854354772</v>
+        <v>112.0094035560532</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.2050372740762</v>
+        <v>153.2562074514572</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.1103810851544</v>
+        <v>138.6296501087702</v>
       </c>
       <c r="AD3" t="n">
-        <v>100278.1854354772</v>
+        <v>112009.4035560532</v>
       </c>
       <c r="AE3" t="n">
-        <v>137205.0372740762</v>
+        <v>153256.2074514572</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.019607962044404e-06</v>
+        <v>1.157391877646669e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.636458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>124110.3810851544</v>
+        <v>138629.6501087702</v>
       </c>
     </row>
     <row r="4">
@@ -5937,28 +5937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.25551981675611</v>
+        <v>104.9867379373322</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.5963163564056</v>
+        <v>143.6474865337867</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.4187030059387</v>
+        <v>129.9379720295545</v>
       </c>
       <c r="AD4" t="n">
-        <v>93255.5198167561</v>
+        <v>104986.7379373322</v>
       </c>
       <c r="AE4" t="n">
-        <v>127596.3163564056</v>
+        <v>143647.4865337867</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.305109716470179e-06</v>
+        <v>1.212285387939994e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.516666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>115418.7030059387</v>
+        <v>129937.9720295545</v>
       </c>
     </row>
   </sheetData>
@@ -6234,28 +6234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.6865547584467</v>
+        <v>361.8723551457369</v>
       </c>
       <c r="AB2" t="n">
-        <v>462.0376418998784</v>
+        <v>495.1297209919766</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.9414178308565</v>
+        <v>447.8752353394295</v>
       </c>
       <c r="AD2" t="n">
-        <v>337686.5547584467</v>
+        <v>361872.3551457369</v>
       </c>
       <c r="AE2" t="n">
-        <v>462037.6418998784</v>
+        <v>495129.7209919766</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.984098492462861e-06</v>
+        <v>5.559149158258089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.133333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>417941.4178308565</v>
+        <v>447875.2353394295</v>
       </c>
     </row>
     <row r="3">
@@ -6340,28 +6340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.2529609103015</v>
+        <v>151.3533309344686</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.1131151218171</v>
+        <v>207.0883046221523</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.4960037839313</v>
+        <v>187.3240874793341</v>
       </c>
       <c r="AD3" t="n">
-        <v>127252.9609103015</v>
+        <v>151353.3309344686</v>
       </c>
       <c r="AE3" t="n">
-        <v>174113.1151218171</v>
+        <v>207088.3046221523</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.255148466227037e-06</v>
+        <v>9.789943008360978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.914583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>157496.0037839313</v>
+        <v>187324.0874793341</v>
       </c>
     </row>
     <row r="4">
@@ -6446,28 +6446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.5554344054556</v>
+        <v>113.7336306993966</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.9526256630474</v>
+        <v>155.6153710965114</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.6911820910385</v>
+        <v>140.7636584866481</v>
       </c>
       <c r="AD4" t="n">
-        <v>101555.4344054556</v>
+        <v>113733.6306993966</v>
       </c>
       <c r="AE4" t="n">
-        <v>138952.6256630474</v>
+        <v>155615.3710965114</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.088043250699991e-06</v>
+        <v>1.134156281974292e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>125691.1820910385</v>
+        <v>140763.6584866481</v>
       </c>
     </row>
     <row r="5">
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.70809793452754</v>
+        <v>110.7157020278763</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.056774287906</v>
+        <v>151.4861079465232</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.1671453032776</v>
+        <v>137.0284864162362</v>
       </c>
       <c r="AD5" t="n">
-        <v>98708.09793452754</v>
+        <v>110715.7020278763</v>
       </c>
       <c r="AE5" t="n">
-        <v>135056.774287906</v>
+        <v>151486.1079465232</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.196713668377518e-06</v>
+        <v>1.154400756561356e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.471875</v>
       </c>
       <c r="AH5" t="n">
-        <v>122167.1453032776</v>
+        <v>137028.4864162362</v>
       </c>
     </row>
   </sheetData>
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.4230904850162</v>
+        <v>146.5436634826762</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.2918468466144</v>
+        <v>200.5075054270606</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.607853042366</v>
+        <v>181.3713505232102</v>
       </c>
       <c r="AD2" t="n">
-        <v>135423.0904850162</v>
+        <v>146543.6634826761</v>
       </c>
       <c r="AE2" t="n">
-        <v>185291.8468466144</v>
+        <v>200507.5054270606</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.04049003889812e-06</v>
+        <v>1.010364895069548e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.2875</v>
       </c>
       <c r="AH2" t="n">
-        <v>167607.853042366</v>
+        <v>181371.3505232102</v>
       </c>
     </row>
     <row r="3">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.41622810290835</v>
+        <v>99.62205244658887</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.9749839390397</v>
+        <v>136.3072871721351</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.4293012613857</v>
+        <v>123.2983109929421</v>
       </c>
       <c r="AD3" t="n">
-        <v>88416.22810290835</v>
+        <v>99622.05244658887</v>
       </c>
       <c r="AE3" t="n">
-        <v>120974.9839390397</v>
+        <v>136307.2871721351</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.344997623766336e-06</v>
+        <v>1.271853095409477e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.611458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>109429.3012613857</v>
+        <v>123298.3109929421</v>
       </c>
     </row>
   </sheetData>
@@ -7252,28 +7252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.85064828823734</v>
+        <v>110.0558054474095</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.5693768018725</v>
+        <v>150.5832083325465</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.9669661036255</v>
+        <v>136.2117582741896</v>
       </c>
       <c r="AD2" t="n">
-        <v>88850.64828823734</v>
+        <v>110055.8054474095</v>
       </c>
       <c r="AE2" t="n">
-        <v>121569.3768018725</v>
+        <v>150583.2083325465</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.09732433171471e-06</v>
+        <v>1.275598381590976e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.83125</v>
       </c>
       <c r="AH2" t="n">
-        <v>109966.9661036255</v>
+        <v>136211.7582741896</v>
       </c>
     </row>
     <row r="3">
@@ -7358,28 +7358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.46985850146066</v>
+        <v>106.6750156606328</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.943631065688</v>
+        <v>145.9574625963621</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.7826950482261</v>
+        <v>132.0274872187902</v>
       </c>
       <c r="AD3" t="n">
-        <v>85469.85850146067</v>
+        <v>106675.0156606328</v>
       </c>
       <c r="AE3" t="n">
-        <v>116943.631065688</v>
+        <v>145957.462596362</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.280108175218578e-06</v>
+        <v>1.313837904744068e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.748958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>105782.6950482261</v>
+        <v>132027.4872187902</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.48816045953576</v>
+        <v>104.9335900107519</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.6004284952661</v>
+        <v>143.5747671959185</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.5676858459282</v>
+        <v>129.8721929232302</v>
       </c>
       <c r="AD2" t="n">
-        <v>84488.16045953576</v>
+        <v>104933.5900107519</v>
       </c>
       <c r="AE2" t="n">
-        <v>115600.4284952661</v>
+        <v>143574.7671959185</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.07923498701394e-06</v>
+        <v>1.321538005283573e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>104567.6858459282</v>
+        <v>129872.1929232302</v>
       </c>
     </row>
   </sheetData>
@@ -12789,28 +12789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.30172319479529</v>
+        <v>118.3264778768761</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.8689985579021</v>
+        <v>161.899507226853</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.9018520289094</v>
+        <v>146.4480454845523</v>
       </c>
       <c r="AD2" t="n">
-        <v>99301.72319479528</v>
+        <v>118326.4778768761</v>
       </c>
       <c r="AE2" t="n">
-        <v>135868.9985579021</v>
+        <v>161899.507226853</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.141077143707653e-06</v>
+        <v>1.22281906078608e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.728125</v>
       </c>
       <c r="AH2" t="n">
-        <v>122901.8520289094</v>
+        <v>146448.0454845523</v>
       </c>
     </row>
   </sheetData>
@@ -13086,28 +13086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.284818569688</v>
+        <v>206.3313311719948</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.7783747224497</v>
+        <v>282.3116300052882</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.8444386086715</v>
+        <v>255.3682042645277</v>
       </c>
       <c r="AD2" t="n">
-        <v>183284.818569688</v>
+        <v>206331.3311719948</v>
       </c>
       <c r="AE2" t="n">
-        <v>250778.3747224497</v>
+        <v>282311.6300052882</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.161099240366679e-06</v>
+        <v>8.074938453038247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.852083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>226844.4386086715</v>
+        <v>255368.2042645277</v>
       </c>
     </row>
     <row r="3">
@@ -13192,28 +13192,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.92283475864365</v>
+        <v>106.5314319143687</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.8776102166388</v>
+        <v>145.7610049802557</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.4822733819681</v>
+        <v>131.8497792418349</v>
       </c>
       <c r="AD3" t="n">
-        <v>94922.83475864364</v>
+        <v>106531.4319143687</v>
       </c>
       <c r="AE3" t="n">
-        <v>129877.6102166388</v>
+        <v>145761.0049802557</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.194026177604581e-06</v>
+        <v>1.201999213944661e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.5875</v>
       </c>
       <c r="AH3" t="n">
-        <v>117482.2733819681</v>
+        <v>131849.7792418349</v>
       </c>
     </row>
     <row r="4">
@@ -13298,28 +13298,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.13694842920185</v>
+        <v>103.7455455849269</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.0658376360678</v>
+        <v>141.9492323996847</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.0342910266291</v>
+        <v>128.401796886496</v>
       </c>
       <c r="AD4" t="n">
-        <v>92136.94842920185</v>
+        <v>103745.5455849269</v>
       </c>
       <c r="AE4" t="n">
-        <v>126065.8376360678</v>
+        <v>141949.2323996847</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.322045797024951e-06</v>
+        <v>1.226842422142449e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.535416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>114034.2910266291</v>
+        <v>128401.796886496</v>
       </c>
     </row>
   </sheetData>
@@ -13595,28 +13595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.2770990004873</v>
+        <v>327.1522502582891</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.5381770911513</v>
+        <v>447.6241417420479</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.5022528214157</v>
+        <v>404.9035218986147</v>
       </c>
       <c r="AD2" t="n">
-        <v>291277.0990004873</v>
+        <v>327152.2502582891</v>
       </c>
       <c r="AE2" t="n">
-        <v>398538.1770911514</v>
+        <v>447624.1417420479</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.201379031205781e-06</v>
+        <v>6.007042737020134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.823958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>360502.2528214157</v>
+        <v>404903.5218986147</v>
       </c>
     </row>
     <row r="3">
@@ -13701,28 +13701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.1046075984891</v>
+        <v>143.9929281521661</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.3324227575094</v>
+        <v>197.0174768173577</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.6487669715821</v>
+        <v>178.2144053457303</v>
       </c>
       <c r="AD3" t="n">
-        <v>120104.6075984891</v>
+        <v>143992.928152166</v>
       </c>
       <c r="AE3" t="n">
-        <v>164332.4227575094</v>
+        <v>197017.4768173577</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.438385443312752e-06</v>
+        <v>1.02045441854673e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.839583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>148648.7669715821</v>
+        <v>178214.4053457303</v>
       </c>
     </row>
     <row r="4">
@@ -13807,28 +13807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.9797462806268</v>
+        <v>109.8813256387305</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.0602114224324</v>
+        <v>150.3444773608061</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.2656929989997</v>
+        <v>135.995811451331</v>
       </c>
       <c r="AD4" t="n">
-        <v>97979.7462806268</v>
+        <v>109881.3256387305</v>
       </c>
       <c r="AE4" t="n">
-        <v>134060.2114224324</v>
+        <v>150344.4773608061</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.19725061313866e-06</v>
+        <v>1.162847289317278e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.492708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>121265.6929989997</v>
+        <v>135995.811451331</v>
       </c>
     </row>
     <row r="5">
@@ -13913,28 +13913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.2157215821869</v>
+        <v>109.1173009402906</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.0148391236366</v>
+        <v>149.2991050620103</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.3200895652114</v>
+        <v>135.0502080175427</v>
       </c>
       <c r="AD5" t="n">
-        <v>97215.7215821869</v>
+        <v>109117.3009402906</v>
       </c>
       <c r="AE5" t="n">
-        <v>133014.8391236366</v>
+        <v>149299.1050620103</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.237877626919883e-06</v>
+        <v>1.170470510612927e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.476041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>120320.0895652114</v>
+        <v>135050.2080175427</v>
       </c>
     </row>
   </sheetData>
@@ -14210,28 +14210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.9714816438871</v>
+        <v>134.3772084249253</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.6772974857778</v>
+        <v>183.8608248709388</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.5333589187645</v>
+        <v>166.3134057955965</v>
       </c>
       <c r="AD2" t="n">
-        <v>115971.4816438871</v>
+        <v>134377.2084249253</v>
       </c>
       <c r="AE2" t="n">
-        <v>158677.2974857778</v>
+        <v>183860.8248709388</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.338973354426045e-06</v>
+        <v>1.085144307676376e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.573958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>143533.3589187645</v>
+        <v>166313.4057955965</v>
       </c>
     </row>
   </sheetData>
@@ -14507,28 +14507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.54129581193594</v>
+        <v>120.0838489060499</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.828548264986</v>
+        <v>164.3040197987052</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.9607008516678</v>
+        <v>148.6230747513023</v>
       </c>
       <c r="AD2" t="n">
-        <v>98541.29581193594</v>
+        <v>120083.8489060499</v>
       </c>
       <c r="AE2" t="n">
-        <v>134828.548264986</v>
+        <v>164304.0197987052</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.760725092397402e-06</v>
+        <v>1.186296588954598e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>121960.7008516678</v>
+        <v>148623.0747513023</v>
       </c>
     </row>
     <row r="3">
@@ -14613,28 +14613,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.47423410954653</v>
+        <v>108.0167872036604</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.317862082595</v>
+        <v>147.7933336163142</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.0257713856253</v>
+        <v>133.6881452852598</v>
       </c>
       <c r="AD3" t="n">
-        <v>86474.23410954652</v>
+        <v>108016.7872036604</v>
       </c>
       <c r="AE3" t="n">
-        <v>118317.862082595</v>
+        <v>147793.3336163142</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.313331428329392e-06</v>
+        <v>1.300093897598256e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.694791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>107025.7713856253</v>
+        <v>133688.1452852598</v>
       </c>
     </row>
   </sheetData>
@@ -14910,28 +14910,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.7481902140204</v>
+        <v>172.100212670975</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.8920802746254</v>
+        <v>235.4751035018505</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.3374677011142</v>
+        <v>213.0016901150854</v>
       </c>
       <c r="AD2" t="n">
-        <v>149748.1902140203</v>
+        <v>172100.212670975</v>
       </c>
       <c r="AE2" t="n">
-        <v>204892.0802746254</v>
+        <v>235475.1035018505</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.72799958272977e-06</v>
+        <v>9.367037653820058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>185337.4677011142</v>
+        <v>213001.6901150854</v>
       </c>
     </row>
     <row r="3">
@@ -15016,28 +15016,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.31653450294633</v>
+        <v>100.6631826862913</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.2068228742862</v>
+        <v>137.7318074975198</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.5435752175495</v>
+        <v>124.5868770977994</v>
       </c>
       <c r="AD3" t="n">
-        <v>89316.53450294632</v>
+        <v>100663.1826862913</v>
       </c>
       <c r="AE3" t="n">
-        <v>122206.8228742862</v>
+        <v>137731.8074975198</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.353210133630197e-06</v>
+        <v>1.25868789755658e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>110543.5752175495</v>
+        <v>124586.8770977994</v>
       </c>
     </row>
     <row r="4">
@@ -15122,28 +15122,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.68844656889164</v>
+        <v>101.0350947522367</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.7156893705147</v>
+        <v>138.2406739937483</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.0038762095767</v>
+        <v>125.0471780898266</v>
       </c>
       <c r="AD4" t="n">
-        <v>89688.44656889164</v>
+        <v>101035.0947522367</v>
       </c>
       <c r="AE4" t="n">
-        <v>122715.6893705147</v>
+        <v>138240.6739937483</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.351795129764656e-06</v>
+        <v>1.258407559238928e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>111003.8762095767</v>
+        <v>125047.1780898266</v>
       </c>
     </row>
   </sheetData>
